--- a/Pickaboo_Test Case(Manual Testing).xlsx
+++ b/Pickaboo_Test Case(Manual Testing).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\IT Training\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\IT Training\Assignment\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1249,7 +1249,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1530,9 +1530,6 @@
     <xf numFmtId="0" fontId="15" fillId="20" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1563,64 +1560,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1650,6 +1589,70 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2184,7 +2187,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2199,7 +2202,7 @@
     <col min="8" max="9" width="24.33203125" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.77734375" style="36" customWidth="1"/>
     <col min="11" max="11" width="20.6640625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" style="116" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" style="115" customWidth="1"/>
     <col min="13" max="13" width="95.6640625" style="36" customWidth="1"/>
     <col min="14" max="14" width="67.6640625" style="36" customWidth="1"/>
     <col min="15" max="29" width="12.6640625" style="36" customWidth="1"/>
@@ -2217,7 +2220,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
-      <c r="L1" s="110" t="s">
+      <c r="L1" s="109" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="37"/>
@@ -2244,12 +2247,12 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
-      <c r="L2" s="109" t="s">
+      <c r="L2" s="108" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="39">
@@ -2499,7 +2502,7 @@
       <c r="F8" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="108" t="s">
+      <c r="G8" s="164" t="s">
         <v>83</v>
       </c>
       <c r="H8" s="56" t="s">
@@ -2561,7 +2564,7 @@
       </c>
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
-      <c r="L9" s="111" t="s">
+      <c r="L9" s="110" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="103"/>
@@ -2594,11 +2597,11 @@
       <c r="I10" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="112" t="s">
+      <c r="L10" s="111" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="114" customFormat="1" ht="109.2">
+    <row r="11" spans="1:29" s="113" customFormat="1" ht="109.2">
       <c r="A11" s="105" t="s">
         <v>87</v>
       </c>
@@ -2611,7 +2614,7 @@
       <c r="D11" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="113" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="105" t="s">
@@ -2626,7 +2629,7 @@
       <c r="I11" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="118" t="s">
+      <c r="J11" s="117" t="s">
         <v>112</v>
       </c>
       <c r="K11" s="105"/>
@@ -2635,7 +2638,7 @@
       </c>
       <c r="M11" s="105"/>
     </row>
-    <row r="12" spans="1:29" s="114" customFormat="1" ht="124.8">
+    <row r="12" spans="1:29" s="113" customFormat="1" ht="124.8">
       <c r="A12" s="87" t="s">
         <v>91</v>
       </c>
@@ -2648,19 +2651,19 @@
       <c r="D12" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="113" t="s">
         <v>93</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="114" t="s">
+      <c r="H12" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="114" t="s">
+      <c r="I12" s="113" t="s">
         <v>74</v>
       </c>
       <c r="L12" s="87" t="s">
@@ -2668,7 +2671,7 @@
       </c>
       <c r="M12" s="87"/>
     </row>
-    <row r="13" spans="1:29" s="114" customFormat="1" ht="124.8">
+    <row r="13" spans="1:29" s="113" customFormat="1" ht="124.8">
       <c r="A13" s="87" t="s">
         <v>95</v>
       </c>
@@ -2681,28 +2684,28 @@
       <c r="D13" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="113" t="s">
         <v>97</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="114" t="s">
+      <c r="I13" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
       <c r="L13" s="87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="114" customFormat="1" ht="109.2">
+    <row r="14" spans="1:29" s="113" customFormat="1" ht="109.2">
       <c r="A14" s="87" t="s">
         <v>99</v>
       </c>
@@ -2715,10 +2718,10 @@
       <c r="D14" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="114" t="s">
+      <c r="E14" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="113" t="s">
         <v>101</v>
       </c>
       <c r="G14" s="73" t="s">
@@ -2727,7 +2730,7 @@
       <c r="H14" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="114" t="s">
+      <c r="I14" s="113" t="s">
         <v>74</v>
       </c>
       <c r="L14" s="87" t="s">
@@ -2735,7 +2738,7 @@
       </c>
       <c r="M14" s="87"/>
     </row>
-    <row r="15" spans="1:29" s="114" customFormat="1" ht="109.2">
+    <row r="15" spans="1:29" s="113" customFormat="1" ht="109.2">
       <c r="A15" s="87" t="s">
         <v>103</v>
       </c>
@@ -2751,7 +2754,7 @@
       <c r="E15" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="113" t="s">
         <v>105</v>
       </c>
       <c r="G15" s="73" t="s">
@@ -2760,16 +2763,16 @@
       <c r="H15" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="114" t="s">
+      <c r="I15" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="115"/>
+      <c r="K15" s="114"/>
       <c r="L15" s="87" t="s">
         <v>16</v>
       </c>
       <c r="M15" s="87"/>
     </row>
-    <row r="16" spans="1:29" s="114" customFormat="1" ht="93.6">
+    <row r="16" spans="1:29" s="113" customFormat="1" ht="93.6">
       <c r="A16" s="87" t="s">
         <v>107</v>
       </c>
@@ -2794,10 +2797,10 @@
       <c r="H16" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="114" t="s">
+      <c r="I16" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="114" t="s">
+      <c r="J16" s="113" t="s">
         <v>111</v>
       </c>
       <c r="L16" s="87" t="s">
@@ -3297,7 +3300,7 @@
       <c r="I33" s="56"/>
       <c r="J33" s="56"/>
       <c r="K33" s="65"/>
-      <c r="L33" s="114"/>
+      <c r="L33" s="113"/>
       <c r="M33" s="57"/>
       <c r="N33" s="38"/>
       <c r="O33" s="38"/>
@@ -3576,7 +3579,7 @@
       <c r="I42" s="56"/>
       <c r="J42" s="56"/>
       <c r="K42" s="58"/>
-      <c r="L42" s="114"/>
+      <c r="L42" s="113"/>
       <c r="M42" s="64"/>
       <c r="N42" s="38"/>
       <c r="O42" s="38"/>
@@ -3669,7 +3672,7 @@
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
       <c r="K45" s="58"/>
-      <c r="L45" s="114"/>
+      <c r="L45" s="113"/>
       <c r="M45" s="64"/>
       <c r="N45" s="38"/>
       <c r="O45" s="38"/>
@@ -4248,7 +4251,7 @@
       <c r="I65" s="56"/>
       <c r="J65" s="56"/>
       <c r="K65" s="65"/>
-      <c r="L65" s="115"/>
+      <c r="L65" s="114"/>
       <c r="M65" s="68"/>
       <c r="N65" s="38"/>
       <c r="O65" s="38"/>
@@ -4620,7 +4623,7 @@
       <c r="I77" s="56"/>
       <c r="J77" s="56"/>
       <c r="K77" s="58"/>
-      <c r="L77" s="114"/>
+      <c r="L77" s="113"/>
       <c r="M77" s="67"/>
       <c r="N77" s="38"/>
       <c r="O77" s="38"/>
@@ -4771,7 +4774,7 @@
       <c r="I82" s="56"/>
       <c r="J82" s="56"/>
       <c r="K82" s="58"/>
-      <c r="L82" s="114"/>
+      <c r="L82" s="113"/>
       <c r="M82" s="57"/>
       <c r="N82" s="38"/>
       <c r="O82" s="38"/>
@@ -4952,7 +4955,7 @@
       <c r="I88" s="56"/>
       <c r="J88" s="56"/>
       <c r="K88" s="58"/>
-      <c r="L88" s="114"/>
+      <c r="L88" s="113"/>
       <c r="M88" s="67"/>
       <c r="N88" s="38"/>
       <c r="O88" s="38"/>
@@ -5292,7 +5295,7 @@
       <c r="I99" s="56"/>
       <c r="J99" s="56"/>
       <c r="K99" s="58"/>
-      <c r="L99" s="114"/>
+      <c r="L99" s="113"/>
       <c r="M99" s="57"/>
       <c r="N99" s="38"/>
       <c r="O99" s="38"/>
@@ -8571,7 +8574,7 @@
       <c r="I205" s="61"/>
       <c r="J205" s="61"/>
       <c r="K205" s="37"/>
-      <c r="L205" s="113"/>
+      <c r="L205" s="112"/>
       <c r="M205" s="57"/>
       <c r="N205" s="38"/>
       <c r="O205" s="38"/>
@@ -8602,7 +8605,7 @@
       <c r="I206" s="61"/>
       <c r="J206" s="61"/>
       <c r="K206" s="37"/>
-      <c r="L206" s="113"/>
+      <c r="L206" s="112"/>
       <c r="M206" s="57"/>
       <c r="N206" s="38"/>
       <c r="O206" s="38"/>
@@ -9966,7 +9969,7 @@
       <c r="I250" s="95"/>
       <c r="J250" s="95"/>
       <c r="K250" s="97"/>
-      <c r="L250" s="117"/>
+      <c r="L250" s="116"/>
       <c r="M250" s="98"/>
       <c r="N250" s="99"/>
       <c r="O250" s="99"/>
@@ -9997,7 +10000,7 @@
       <c r="I251" s="102"/>
       <c r="J251" s="102"/>
       <c r="K251" s="97"/>
-      <c r="L251" s="117"/>
+      <c r="L251" s="116"/>
       <c r="M251" s="98"/>
       <c r="N251" s="99"/>
       <c r="O251" s="99"/>
@@ -13859,7 +13862,7 @@
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" sqref="L8:L9 L13:L32 L34:L41 L43:L44 L46:L64 L66:L76 L78:L81 L83:L87 L89:L90 L92:L98 K187:L192 L193 K194:L195 L196:L200 L203:L204 L207 L210:L221 L223:L231 K232:L232 L233:L235 L238:L239 L241 L243:L245 K246:L255 L256:L285 L298:L301 L321:L353 L100:L186">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
@@ -13920,39 +13923,39 @@
     <row r="2" spans="1:26" ht="13.2"/>
     <row r="3" spans="1:26" ht="13.2"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="160"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="128"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="149"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="128"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="149"/>
       <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
@@ -13960,24 +13963,24 @@
         <v>21</v>
       </c>
       <c r="K6" s="28"/>
-      <c r="L6" s="151" t="s">
+      <c r="L6" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="153"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="120"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
       <c r="I7" s="32">
         <f>C15</f>
         <v>6</v>
@@ -13986,22 +13989,22 @@
         <v>1</v>
       </c>
       <c r="K7" s="28"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="155"/>
-      <c r="O7" s="156"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="123"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
       <c r="I8" s="32">
         <f>D15</f>
         <v>3</v>
@@ -14010,22 +14013,22 @@
         <v>2</v>
       </c>
       <c r="K8" s="28"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="159"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="126"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="149"/>
       <c r="I9" s="6">
         <f>E15</f>
         <v>0</v>
@@ -14039,22 +14042,22 @@
       <c r="M9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="145" t="s">
+      <c r="N9" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="145"/>
+      <c r="O9" s="136"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="128"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="149"/>
       <c r="I10" s="6">
         <f>F15</f>
         <v>0</v>
@@ -14064,28 +14067,28 @@
       </c>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
-      <c r="N10" s="160" t="s">
+      <c r="N10" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="161"/>
+      <c r="O10" s="128"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="152"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="141"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
@@ -14220,21 +14223,21 @@
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="131"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="155"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="150" t="s">
+      <c r="B19" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
         <v>39</v>
@@ -14244,11 +14247,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27" t="s">
         <v>42</v>
@@ -14258,11 +14261,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
         <v>42</v>
@@ -14273,306 +14276,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="142"/>
-      <c r="C23" s="132" t="s">
+      <c r="B23" s="163"/>
+      <c r="C23" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="133" t="s">
+      <c r="D23" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="135"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="138"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="143"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="138"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="143"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="141"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="146"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="144" t="s">
+      <c r="D27" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="135"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="140"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="138"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="143"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="138"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="143"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="141"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="146"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="144" t="s">
+      <c r="D31" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="135"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="140"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="138"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="143"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="138"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="143"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="141"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="146"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="122" t="s">
+      <c r="C35" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="144" t="s">
+      <c r="D35" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="135"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="140"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="138"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="143"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="138"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="143"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="141"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="146"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="119" t="s">
+      <c r="B39" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="122" t="s">
+      <c r="C39" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="144" t="s">
+      <c r="D39" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="135"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="140"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="120"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="138"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="143"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="138"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="143"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="141"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="146"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="119" t="s">
+      <c r="B43" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="143" t="s">
+      <c r="C43" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="144" t="s">
+      <c r="D43" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="135"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="140"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="138"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="143"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="138"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="143"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="141"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="146"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="119" t="s">
+      <c r="B47" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="143" t="s">
+      <c r="C47" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="144" t="s">
+      <c r="D47" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="135"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="140"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="138"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="143"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="120"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="138"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="143"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="141"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="146"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="119" t="s">
+      <c r="B51" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="143" t="s">
+      <c r="C51" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="144" t="s">
+      <c r="D51" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="135"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="140"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="138"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="143"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="138"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="143"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="141"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="146"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -15522,11 +15525,25 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:G46"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="N9:O9"/>
@@ -15543,25 +15560,11 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
